--- a/ResourcesOnTap/Resources/Specs.xlsx
+++ b/ResourcesOnTap/Resources/Specs.xlsx
@@ -7,9 +7,8 @@
     <workbookView xWindow="360" yWindow="75" windowWidth="27735" windowHeight="9990"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Decisions" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -514,7 +513,7 @@
   <dimension ref="B1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G10:H16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1304,16 +1303,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ResourcesOnTap/Resources/Specs.xlsx
+++ b/ResourcesOnTap/Resources/Specs.xlsx
@@ -513,7 +513,7 @@
   <dimension ref="B1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -572,7 +572,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -591,7 +591,7 @@
       </c>
       <c r="J3" s="2">
         <f>(Table1[[#This Row],[Cost (PP)]]/Table1[[#This Row],[Resource Quantity]])+((Table1[[#This Row],[Upkeep Per Day (Civ Factories)]]/Table1[[#This Row],[Time to Complete (Days)]])*100)</f>
-        <v>6.1111111111111107</v>
+        <v>3.6111111111111112</v>
       </c>
     </row>
     <row r="4" spans="2:10">
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -621,7 +621,7 @@
       </c>
       <c r="J4" s="2">
         <f>(Table1[[#This Row],[Cost (PP)]]/Table1[[#This Row],[Resource Quantity]])+((Table1[[#This Row],[Upkeep Per Day (Civ Factories)]]/Table1[[#This Row],[Time to Complete (Days)]])*100)</f>
-        <v>11.111111111111111</v>
+        <v>6.1111111111111107</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -632,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -651,7 +651,7 @@
       </c>
       <c r="J5" s="2">
         <f>(Table1[[#This Row],[Cost (PP)]]/Table1[[#This Row],[Resource Quantity]])+((Table1[[#This Row],[Upkeep Per Day (Civ Factories)]]/Table1[[#This Row],[Time to Complete (Days)]])*100)</f>
-        <v>11.111111111111111</v>
+        <v>6.1111111111111107</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -662,7 +662,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -681,7 +681,7 @@
       </c>
       <c r="J6" s="2">
         <f>(Table1[[#This Row],[Cost (PP)]]/Table1[[#This Row],[Resource Quantity]])+((Table1[[#This Row],[Upkeep Per Day (Civ Factories)]]/Table1[[#This Row],[Time to Complete (Days)]])*100)</f>
-        <v>21.111111111111111</v>
+        <v>11.111111111111111</v>
       </c>
     </row>
     <row r="7" spans="2:10">
@@ -692,7 +692,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -711,7 +711,7 @@
       </c>
       <c r="J7" s="2">
         <f>(Table1[[#This Row],[Cost (PP)]]/Table1[[#This Row],[Resource Quantity]])+((Table1[[#This Row],[Upkeep Per Day (Civ Factories)]]/Table1[[#This Row],[Time to Complete (Days)]])*100)</f>
-        <v>11.111111111111111</v>
+        <v>6.1111111111111107</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -722,7 +722,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -741,7 +741,7 @@
       </c>
       <c r="J8" s="2">
         <f>(Table1[[#This Row],[Cost (PP)]]/Table1[[#This Row],[Resource Quantity]])+((Table1[[#This Row],[Upkeep Per Day (Civ Factories)]]/Table1[[#This Row],[Time to Complete (Days)]])*100)</f>
-        <v>11.111111111111111</v>
+        <v>6.1111111111111107</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -752,7 +752,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -771,7 +771,7 @@
       </c>
       <c r="J9" s="2">
         <f>(Table1[[#This Row],[Cost (PP)]]/Table1[[#This Row],[Resource Quantity]])+((Table1[[#This Row],[Upkeep Per Day (Civ Factories)]]/Table1[[#This Row],[Time to Complete (Days)]])*100)</f>
-        <v>9.4444444444444446</v>
+        <v>6.9444444444444446</v>
       </c>
     </row>
     <row r="10" spans="2:10">
@@ -782,7 +782,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -801,7 +801,7 @@
       </c>
       <c r="J10" s="2">
         <f>(Table1[[#This Row],[Cost (PP)]]/Table1[[#This Row],[Resource Quantity]])+((Table1[[#This Row],[Upkeep Per Day (Civ Factories)]]/Table1[[#This Row],[Time to Complete (Days)]])*100)</f>
-        <v>14.444444444444445</v>
+        <v>9.4444444444444446</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -812,7 +812,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -831,7 +831,7 @@
       </c>
       <c r="J11" s="2">
         <f>(Table1[[#This Row],[Cost (PP)]]/Table1[[#This Row],[Resource Quantity]])+((Table1[[#This Row],[Upkeep Per Day (Civ Factories)]]/Table1[[#This Row],[Time to Complete (Days)]])*100)</f>
-        <v>14.444444444444445</v>
+        <v>9.4444444444444446</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -842,7 +842,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -861,7 +861,7 @@
       </c>
       <c r="J12" s="2">
         <f>(Table1[[#This Row],[Cost (PP)]]/Table1[[#This Row],[Resource Quantity]])+((Table1[[#This Row],[Upkeep Per Day (Civ Factories)]]/Table1[[#This Row],[Time to Complete (Days)]])*100)</f>
-        <v>24.444444444444443</v>
+        <v>14.444444444444445</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -872,7 +872,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -891,7 +891,7 @@
       </c>
       <c r="J13" s="2">
         <f>(Table1[[#This Row],[Cost (PP)]]/Table1[[#This Row],[Resource Quantity]])+((Table1[[#This Row],[Upkeep Per Day (Civ Factories)]]/Table1[[#This Row],[Time to Complete (Days)]])*100)</f>
-        <v>14.444444444444445</v>
+        <v>9.4444444444444446</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -902,7 +902,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -921,7 +921,7 @@
       </c>
       <c r="J14" s="2">
         <f>(Table1[[#This Row],[Cost (PP)]]/Table1[[#This Row],[Resource Quantity]])+((Table1[[#This Row],[Upkeep Per Day (Civ Factories)]]/Table1[[#This Row],[Time to Complete (Days)]])*100)</f>
-        <v>14.444444444444445</v>
+        <v>9.4444444444444446</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -932,7 +932,7 @@
         <v>28</v>
       </c>
       <c r="D15" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
@@ -951,7 +951,7 @@
       </c>
       <c r="J15" s="2">
         <f>(Table1[[#This Row],[Cost (PP)]]/Table1[[#This Row],[Resource Quantity]])+((Table1[[#This Row],[Upkeep Per Day (Civ Factories)]]/Table1[[#This Row],[Time to Complete (Days)]])*100)</f>
-        <v>12.333333333333332</v>
+        <v>10.333333333333332</v>
       </c>
     </row>
     <row r="16" spans="2:10">
@@ -962,7 +962,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
@@ -981,7 +981,7 @@
       </c>
       <c r="J16" s="2">
         <f>(Table1[[#This Row],[Cost (PP)]]/Table1[[#This Row],[Resource Quantity]])+((Table1[[#This Row],[Upkeep Per Day (Civ Factories)]]/Table1[[#This Row],[Time to Complete (Days)]])*100)</f>
-        <v>16.333333333333332</v>
+        <v>12.333333333333332</v>
       </c>
     </row>
     <row r="17" spans="2:10">
@@ -992,7 +992,7 @@
         <v>30</v>
       </c>
       <c r="D17" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="J17" s="2">
         <f>(Table1[[#This Row],[Cost (PP)]]/Table1[[#This Row],[Resource Quantity]])+((Table1[[#This Row],[Upkeep Per Day (Civ Factories)]]/Table1[[#This Row],[Time to Complete (Days)]])*100)</f>
-        <v>16.333333333333332</v>
+        <v>12.333333333333332</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -1022,7 +1022,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E18" s="1">
         <v>5</v>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="J18" s="2">
         <f>(Table1[[#This Row],[Cost (PP)]]/Table1[[#This Row],[Resource Quantity]])+((Table1[[#This Row],[Upkeep Per Day (Civ Factories)]]/Table1[[#This Row],[Time to Complete (Days)]])*100)</f>
-        <v>24.333333333333332</v>
+        <v>16.333333333333332</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -1052,7 +1052,7 @@
         <v>32</v>
       </c>
       <c r="D19" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1">
         <v>5</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="J19" s="2">
         <f>(Table1[[#This Row],[Cost (PP)]]/Table1[[#This Row],[Resource Quantity]])+((Table1[[#This Row],[Upkeep Per Day (Civ Factories)]]/Table1[[#This Row],[Time to Complete (Days)]])*100)</f>
-        <v>16.333333333333332</v>
+        <v>12.333333333333332</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -1082,7 +1082,7 @@
         <v>33</v>
       </c>
       <c r="D20" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="J20" s="2">
         <f>(Table1[[#This Row],[Cost (PP)]]/Table1[[#This Row],[Resource Quantity]])+((Table1[[#This Row],[Upkeep Per Day (Civ Factories)]]/Table1[[#This Row],[Time to Complete (Days)]])*100)</f>
-        <v>16.333333333333332</v>
+        <v>12.333333333333332</v>
       </c>
     </row>
     <row r="21" spans="2:10">
